--- a/tests/data/sensitivities/config/doe1.xlsx
+++ b/tests/data/sensitivities/config/doe1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,16 +17,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>param13</t>
-  </si>
-  <si>
-    <t>param14</t>
-  </si>
-  <si>
-    <t>param15</t>
-  </si>
-  <si>
-    <t>param16</t>
+    <t>PARAM13</t>
+  </si>
+  <si>
+    <t>PARAM14</t>
+  </si>
+  <si>
+    <t>PARAM15</t>
+  </si>
+  <si>
+    <t>PARAM16</t>
   </si>
   <si>
     <t>2018-11-01</t>
@@ -164,7 +164,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D12"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
